--- a/SARE Water Management.xlsx
+++ b/SARE Water Management.xlsx
@@ -15,14 +15,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>A  Block</t>
   </si>
@@ -262,24 +261,12 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,6 +282,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +503,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -868,7 +867,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,10 +903,10 @@
       <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="21">
         <v>43448</v>
       </c>
     </row>
@@ -944,10 +943,10 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -967,7 +966,7 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M4" t="s">
@@ -993,13 +992,13 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="26">
-        <v>12000</v>
-      </c>
-      <c r="M5" s="27">
-        <v>1</v>
-      </c>
-      <c r="N5" s="27">
+      <c r="L5" s="22">
+        <v>12000</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1019,13 +1018,13 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="27">
-        <v>1</v>
-      </c>
-      <c r="N6" s="27">
+      <c r="M6" s="23">
+        <v>1</v>
+      </c>
+      <c r="N6" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1245,21 +1244,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43448</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>12000</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,151 +1270,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="9" t="s">
+      <c r="U2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43446</v>
       </c>
       <c r="B3" s="5">
@@ -1531,7 +1517,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43447</v>
       </c>
       <c r="B4" s="5">
@@ -1634,7 +1620,7 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1693,7 +1679,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1752,7 +1738,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1811,7 +1797,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1870,7 +1856,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1929,7 +1915,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1988,7 +1974,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2047,7 +2033,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2106,7 +2092,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2165,7 +2151,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2224,7 +2210,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2283,7 +2269,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2342,7 +2328,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2401,7 +2387,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -2424,7 +2410,7 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -2447,7 +2433,7 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -2470,7 +2456,7 @@
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -2493,7 +2479,7 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -2516,7 +2502,7 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -2539,7 +2525,7 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="5">
@@ -2693,516 +2679,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>4</v>
       </c>
-      <c r="D3" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E3" s="16">
         <f>C3*D3</f>
         <v>48000</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="17">
         <f>Tankers!D4</f>
         <v>4</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="17">
         <f>Tankers!E4</f>
         <v>12000</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <f t="shared" ref="H3:H4" si="0">IF(F3=0,0,(G3/I3)*F3)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="17">
         <f>IF(G3=24000,G3/2,G3)</f>
         <v>12000</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="17">
         <f>F3*G3</f>
         <v>48000</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="18">
         <f>C3-H3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="18">
         <f>D3</f>
         <v>12000</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="18">
         <f>K3*L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E4" s="16">
         <f t="shared" ref="E4:E11" si="1">C4*D4</f>
         <v>24000</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <f>Tankers!G4</f>
         <v>2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <f>Tankers!H4</f>
         <v>12000</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <f>IF(G4=24000,G4/2,G4)</f>
         <v>12000</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="17">
         <f>F4*G4</f>
         <v>24000</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <f t="shared" ref="K4:K11" si="2">C4-H4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="18">
         <f t="shared" ref="L4:L11" si="3">D4</f>
         <v>12000</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="18">
         <f t="shared" ref="M4:M11" si="4">K4*L4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E5" s="16">
         <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <f>Tankers!J4</f>
         <v>4</v>
       </c>
-      <c r="G5" s="21">
-        <v>12000</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="17">
+        <v>12000</v>
+      </c>
+      <c r="H5" s="17">
         <f>IF(F5=0,0,(G5/I5)*F5)</f>
         <v>4</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="17">
         <f t="shared" ref="I5:I11" si="5">IF(G5=24000,G5/2,G5)</f>
         <v>12000</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <f t="shared" ref="J5:J11" si="6">F5*G5</f>
         <v>48000</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="18">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E6" s="16">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <f>Tankers!M4</f>
         <v>3</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <f>Tankers!N4</f>
         <v>12000</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="17">
         <f t="shared" ref="H6:H11" si="7">IF(F6=0,0,(G6/I6)*F6)</f>
         <v>3</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <f t="shared" si="6"/>
         <v>36000</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="18">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="16">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <f>Tankers!P4</f>
         <v>1</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <f>Tankers!Q4</f>
         <v>24000</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="17">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="17">
         <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="18">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="16">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="17">
         <f>Tankers!S4</f>
         <v>1</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <f>Tankers!T4</f>
         <v>24000</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="17">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="17">
         <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="18">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E9" s="16">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <f>Tankers!V4</f>
         <v>1</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <f>Tankers!W4</f>
         <v>24000</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="17">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="18">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="16">
         <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="17">
         <f>Tankers!Y4</f>
         <v>2</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <f>Tankers!Z4</f>
         <v>24000</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="17">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="17">
         <f t="shared" si="6"/>
         <v>48000</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="18">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E11" s="16">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="17">
         <f>Tankers!AB4</f>
         <v>1</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <f>Tankers!AC4</f>
         <v>24000</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="17">
         <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="18">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
         <f>SUM(C3:C11)</f>
         <v>25</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
         <f>SUM(E3:E11)</f>
         <v>300000</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <f>SUM(F3:F11)</f>
         <v>19</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <f>SUM(H3:H11)</f>
         <v>25</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14">
         <f>SUM(J3:J11)</f>
         <v>300000</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="15">
         <f>SUM(K3:K11)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19">
+      <c r="L12" s="15"/>
+      <c r="M12" s="15">
         <f>SUM(M3:M11)</f>
         <v>0</v>
       </c>

--- a/SARE Water Management.xlsx
+++ b/SARE Water Management.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>A  Block</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>modified</t>
   </si>
 </sst>
 </file>
@@ -867,7 +870,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,6 +1148,9 @@
       </c>
       <c r="E13" t="s">
         <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/SARE Water Management.xlsx
+++ b/SARE Water Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5715"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tanker Tracker" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>A  Block</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Tanker</t>
   </si>
   <si>
-    <t>Total Water(1000s) liters</t>
-  </si>
-  <si>
     <t>A Block</t>
   </si>
   <si>
@@ -161,14 +158,41 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>modified</t>
+    <t>SSQ Rep</t>
+  </si>
+  <si>
+    <t>Shanmukha</t>
+  </si>
+  <si>
+    <t>AUTO POPULATED - READ ONLY</t>
+  </si>
+  <si>
+    <t>Total Water</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Today's Date</t>
+  </si>
+  <si>
+    <t>Read Only</t>
+  </si>
+  <si>
+    <t>Price Per Liter</t>
+  </si>
+  <si>
+    <t>Cost of Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$₹-4009]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +208,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,12 +227,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,8 +248,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -246,11 +284,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,24 +305,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -285,18 +330,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,13 +562,13 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="L3:V8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="2"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -546,9 +601,15 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -557,9 +618,33 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -867,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +963,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" customWidth="1"/>
     <col min="16" max="16" width="2" customWidth="1"/>
     <col min="17" max="17" width="2.42578125" customWidth="1"/>
@@ -890,30 +975,30 @@
     <col min="23" max="23" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="21">
-        <v>43448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M1" s="19">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43447</v>
       </c>
@@ -927,10 +1012,10 @@
         <v>12000</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43447</v>
       </c>
@@ -944,16 +1029,16 @@
         <v>12000</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43447</v>
       </c>
@@ -967,19 +1052,43 @@
         <v>12000</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43447</v>
       </c>
@@ -993,19 +1102,33 @@
         <v>12000</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="22">
+        <v>31</v>
+      </c>
+      <c r="L5" s="20">
         <v>12000</v>
       </c>
-      <c r="M5" s="23">
-        <v>1</v>
-      </c>
-      <c r="N5" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="21">
+        <v>3</v>
+      </c>
+      <c r="N5" s="21">
+        <v>2</v>
+      </c>
+      <c r="O5" s="21">
+        <v>2</v>
+      </c>
+      <c r="P5" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43447</v>
       </c>
@@ -1019,19 +1142,37 @@
         <v>24000</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="23">
-        <v>1</v>
-      </c>
-      <c r="N6" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L6" s="20">
+        <v>24000</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21">
+        <v>1</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21">
+        <v>1</v>
+      </c>
+      <c r="R6" s="21">
+        <v>1</v>
+      </c>
+      <c r="S6" s="21">
+        <v>1</v>
+      </c>
+      <c r="T6" s="21">
+        <v>2</v>
+      </c>
+      <c r="U6" s="21">
+        <v>1</v>
+      </c>
+      <c r="V6" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43447</v>
       </c>
@@ -1045,10 +1186,27 @@
         <v>12000</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43447</v>
       </c>
@@ -1062,10 +1220,43 @@
         <v>24000</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="21">
+        <v>4</v>
+      </c>
+      <c r="N8" s="21">
+        <v>2</v>
+      </c>
+      <c r="O8" s="21">
+        <v>3</v>
+      </c>
+      <c r="P8" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>1</v>
+      </c>
+      <c r="R8" s="21">
+        <v>1</v>
+      </c>
+      <c r="S8" s="21">
+        <v>1</v>
+      </c>
+      <c r="T8" s="21">
+        <v>2</v>
+      </c>
+      <c r="U8" s="21">
+        <v>1</v>
+      </c>
+      <c r="V8" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43447</v>
       </c>
@@ -1079,10 +1270,10 @@
         <v>12000</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43447</v>
       </c>
@@ -1096,10 +1287,10 @@
         <v>24000</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43447</v>
       </c>
@@ -1113,10 +1304,10 @@
         <v>12000</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43447</v>
       </c>
@@ -1130,10 +1321,10 @@
         <v>12000</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43447</v>
       </c>
@@ -1147,13 +1338,10 @@
         <v>24000</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43447</v>
       </c>
@@ -1167,10 +1355,10 @@
         <v>12000</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43447</v>
       </c>
@@ -1184,10 +1372,10 @@
         <v>12000</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43447</v>
       </c>
@@ -1201,7 +1389,7 @@
         <v>24000</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,7 +1403,7 @@
         <v>24000</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,7 +1434,7 @@
         <v>24000</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,1409 +1448,1706 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.28515625" style="2"/>
+    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-    </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+    </row>
+    <row r="3" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="N3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="T3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="W3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="AC3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>43446</v>
       </c>
-      <c r="B3" s="5">
-        <f>SUM(D3,G3,J3,M3,P3,S3,V3,Y3,AB3)</f>
-        <v>14</v>
-      </c>
-      <c r="C3" s="5">
-        <f>SUM(F3,I3,L3,O3,R3,U3,X3,AA3,AD3)/1000</f>
-        <v>300</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B4" s="31">
+        <f>SUM(F4,I4,L4,O4,R4,U4,X4,AA4,AD4)</f>
+        <v>300000</v>
+      </c>
+      <c r="C4" s="33">
+        <f>B4*$C$1</f>
+        <v>15000</v>
+      </c>
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
-        <v>24000</v>
-      </c>
-      <c r="F3" s="7">
-        <f>E3*D3</f>
+      <c r="E4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="F4" s="31">
+        <f>E4*D4</f>
         <v>48000</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>24000</v>
-      </c>
-      <c r="I3" s="6">
-        <f>H3*G3</f>
-        <v>24000</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="I4" s="31">
+        <f>H4*G4</f>
+        <v>24000</v>
+      </c>
+      <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="K3" s="7">
-        <v>24000</v>
-      </c>
-      <c r="L3" s="7">
-        <f>K3*J3</f>
+      <c r="K4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="L4" s="31">
+        <f>K4*J4</f>
         <v>48000</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N4" s="27">
         <v>12000</v>
       </c>
-      <c r="O3" s="6">
-        <f>N3*M3</f>
+      <c r="O4" s="31">
+        <f>N4*M4</f>
         <v>36000</v>
       </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>24000</v>
-      </c>
-      <c r="R3" s="2">
-        <f>Q3*P3</f>
-        <v>24000</v>
-      </c>
-      <c r="S3" s="6">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>24000</v>
-      </c>
-      <c r="U3" s="6">
-        <f>T3*S3</f>
-        <v>24000</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>24000</v>
-      </c>
-      <c r="X3" s="2">
-        <f>W3*V3</f>
-        <v>24000</v>
-      </c>
-      <c r="Y3" s="6">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="R4" s="31">
+        <f>Q4*P4</f>
+        <v>24000</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="U4" s="31">
+        <f>T4*S4</f>
+        <v>24000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="X4" s="31">
+        <f>W4*V4</f>
+        <v>24000</v>
+      </c>
+      <c r="Y4" s="5">
         <v>2</v>
       </c>
-      <c r="Z3" s="6">
-        <v>24000</v>
-      </c>
-      <c r="AA3" s="6">
-        <f>Z3*Y3</f>
+      <c r="Z4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="AA4" s="31">
+        <f>Z4*Y4</f>
         <v>48000</v>
       </c>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>24000</v>
-      </c>
-      <c r="AD3" s="2">
-        <f>AC3*AB3</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>24000</v>
+      </c>
+      <c r="AD4" s="31">
+        <f>AC4*AB4</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>43447</v>
       </c>
-      <c r="B4" s="5">
-        <f t="shared" ref="B4:B17" si="0">SUM(D4,G4,J4,M4,P4,S4,V4,Y4,AB4)</f>
-        <v>19</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" ref="C4:C17" si="1">SUM(F4,I4,L4,O4,R4,U4,X4,AA4,AD4)/1000</f>
-        <v>300</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B5" s="31">
+        <f t="shared" ref="B5:B23" si="0">SUM(F5,I5,L5,O5,R5,U5,X5,AA5,AD5)</f>
+        <v>300000</v>
+      </c>
+      <c r="C5" s="33">
+        <f t="shared" ref="C5:C23" si="1">B5*$C$1</f>
+        <v>15000</v>
+      </c>
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="27">
         <v>12000</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F17" si="2">E4*D4</f>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F23" si="2">E5*D5</f>
         <v>48000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="27">
         <v>12000</v>
       </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I17" si="3">H4*G4</f>
-        <v>24000</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I5" s="31">
+        <f t="shared" ref="I5:I23" si="3">H5*G5</f>
+        <v>24000</v>
+      </c>
+      <c r="J5" s="5">
         <v>4</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K5" s="27">
         <v>12000</v>
       </c>
-      <c r="L4" s="7">
-        <f t="shared" ref="L4:L17" si="4">K4*J4</f>
+      <c r="L5" s="31">
+        <f t="shared" ref="L5:L23" si="4">K5*J5</f>
         <v>48000</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M5" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N5" s="27">
         <v>12000</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" ref="O4:O17" si="5">N4*M4</f>
+      <c r="O5" s="31">
+        <f t="shared" ref="O5:O23" si="5">N5*M5</f>
         <v>36000</v>
       </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>24000</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" ref="R4:R17" si="6">Q4*P4</f>
-        <v>24000</v>
-      </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>24000</v>
-      </c>
-      <c r="U4" s="6">
-        <f t="shared" ref="U4:U17" si="7">T4*S4</f>
-        <v>24000</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2">
-        <v>24000</v>
-      </c>
-      <c r="X4" s="2">
-        <f t="shared" ref="X4:X17" si="8">W4*V4</f>
-        <v>24000</v>
-      </c>
-      <c r="Y4" s="6">
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>24000</v>
+      </c>
+      <c r="R5" s="31">
+        <f t="shared" ref="R5:R23" si="6">Q5*P5</f>
+        <v>24000</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="27">
+        <v>24000</v>
+      </c>
+      <c r="U5" s="31">
+        <f t="shared" ref="U5:U23" si="7">T5*S5</f>
+        <v>24000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="27">
+        <v>24000</v>
+      </c>
+      <c r="X5" s="31">
+        <f t="shared" ref="X5:X23" si="8">W5*V5</f>
+        <v>24000</v>
+      </c>
+      <c r="Y5" s="5">
         <v>2</v>
       </c>
-      <c r="Z4" s="6">
-        <v>24000</v>
-      </c>
-      <c r="AA4" s="6">
-        <f t="shared" ref="AA4:AA17" si="9">Z4*Y4</f>
+      <c r="Z5" s="27">
+        <v>24000</v>
+      </c>
+      <c r="AA5" s="31">
+        <f t="shared" ref="AA5:AA23" si="9">Z5*Y5</f>
         <v>48000</v>
       </c>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>24000</v>
-      </c>
-      <c r="AD4" s="2">
-        <f t="shared" ref="AD4:AD17" si="10">AC4*AB4</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5">
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>24000</v>
+      </c>
+      <c r="AD5" s="31">
+        <f t="shared" ref="AD5:AD23" si="10">AC5*AB5</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43448</v>
+      </c>
+      <c r="B6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D6" s="5"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="G6" s="5"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="J6" s="5"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6">
+      <c r="M6" s="5"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="2">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6">
+      <c r="S6" s="5"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X5" s="2">
+      <c r="W6" s="27"/>
+      <c r="X6" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6">
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43449</v>
+      </c>
+      <c r="B7" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="D7" s="5"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="G7" s="5"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="J7" s="5"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6">
+      <c r="M7" s="5"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R6" s="2">
+      <c r="Q7" s="27"/>
+      <c r="R7" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6">
+      <c r="S7" s="5"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X6" s="2">
+      <c r="W7" s="27"/>
+      <c r="X7" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6">
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43450</v>
+      </c>
+      <c r="B8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="D8" s="5"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="G8" s="5"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7">
+      <c r="J8" s="5"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6">
+      <c r="M8" s="5"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="2">
+      <c r="Q8" s="27"/>
+      <c r="R8" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6">
+      <c r="S8" s="5"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X7" s="2">
+      <c r="W8" s="27"/>
+      <c r="X8" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6">
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43451</v>
+      </c>
+      <c r="B9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="D9" s="5"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="G9" s="5"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="J9" s="5"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
+      <c r="M9" s="5"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="Q9" s="27"/>
+      <c r="R9" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6">
+      <c r="S9" s="5"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X8" s="2">
+      <c r="W9" s="27"/>
+      <c r="X9" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6">
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43452</v>
+      </c>
+      <c r="B10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D10" s="5"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="G10" s="5"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
+      <c r="J10" s="5"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6">
+      <c r="M10" s="5"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="2">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6">
+      <c r="S10" s="5"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X9" s="2">
+      <c r="W10" s="27"/>
+      <c r="X10" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6">
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>43453</v>
+      </c>
+      <c r="B11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="D11" s="5"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
+      <c r="G11" s="5"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
+      <c r="J11" s="5"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6">
+      <c r="M11" s="5"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="2">
+      <c r="Q11" s="27"/>
+      <c r="R11" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6">
+      <c r="S11" s="5"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X10" s="2">
+      <c r="W11" s="27"/>
+      <c r="X11" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43454</v>
+      </c>
+      <c r="B12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="D12" s="5"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="G12" s="5"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7">
+      <c r="J12" s="5"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6">
+      <c r="M12" s="5"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="2">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6">
+      <c r="S12" s="5"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X11" s="2">
+      <c r="W12" s="27"/>
+      <c r="X12" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6">
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>43455</v>
+      </c>
+      <c r="B13" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="D13" s="5"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="G13" s="5"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
+      <c r="J13" s="5"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6">
+      <c r="M13" s="5"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="2">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6">
+      <c r="S13" s="5"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X12" s="2">
+      <c r="W13" s="27"/>
+      <c r="X13" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6">
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>43456</v>
+      </c>
+      <c r="B14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="D14" s="5"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="G14" s="5"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7">
+      <c r="J14" s="5"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6">
+      <c r="M14" s="5"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R13" s="2">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6">
+      <c r="S14" s="5"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X13" s="2">
+      <c r="W14" s="27"/>
+      <c r="X14" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6">
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>43457</v>
+      </c>
+      <c r="B15" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="D15" s="5"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6">
+      <c r="G15" s="5"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
+      <c r="J15" s="5"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6">
+      <c r="M15" s="5"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R14" s="2">
+      <c r="Q15" s="27"/>
+      <c r="R15" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6">
+      <c r="S15" s="5"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X14" s="2">
+      <c r="W15" s="27"/>
+      <c r="X15" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6">
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>43458</v>
+      </c>
+      <c r="B16" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+      <c r="D16" s="5"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6">
+      <c r="G16" s="5"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7">
+      <c r="J16" s="5"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6">
+      <c r="M16" s="5"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R15" s="2">
+      <c r="Q16" s="27"/>
+      <c r="R16" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6">
+      <c r="S16" s="5"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X15" s="2">
+      <c r="W16" s="27"/>
+      <c r="X16" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6">
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>43459</v>
+      </c>
+      <c r="B17" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
+      <c r="D17" s="5"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6">
+      <c r="G17" s="5"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7">
+      <c r="J17" s="5"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6">
+      <c r="M17" s="5"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R16" s="2">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6">
+      <c r="S17" s="5"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X16" s="2">
+      <c r="W17" s="27"/>
+      <c r="X17" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6">
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43460</v>
+      </c>
+      <c r="B18" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
+      <c r="D18" s="5"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6">
+      <c r="G18" s="5"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7">
+      <c r="J18" s="5"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6">
+      <c r="M18" s="5"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="2">
+      <c r="Q18" s="27"/>
+      <c r="R18" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6">
+      <c r="S18" s="5"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X17" s="2">
+      <c r="W18" s="27"/>
+      <c r="X18" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6">
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-    </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
+      <c r="A19" s="9">
+        <v>43461</v>
+      </c>
+      <c r="B19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="27"/>
+      <c r="X19" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
+      <c r="A20" s="9">
+        <v>43462</v>
+      </c>
+      <c r="B20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="27"/>
+      <c r="X20" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
+      <c r="A21" s="9">
+        <v>43463</v>
+      </c>
+      <c r="B21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="27"/>
+      <c r="X21" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
+      <c r="A22" s="9">
+        <v>43464</v>
+      </c>
+      <c r="B22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="27"/>
+      <c r="X22" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
+      <c r="A23" s="9">
+        <v>43465</v>
+      </c>
+      <c r="B23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="27"/>
+      <c r="X23" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
-        <f>SUM(B3:B23)</f>
-        <v>33</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" ref="C24:AD24" si="11">SUM(C3:C23)</f>
-        <v>600</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="31"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="31"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="31"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="31"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="31">
+        <f t="shared" ref="B25:AD25" si="11">SUM(B4:B24)</f>
+        <v>600000</v>
+      </c>
+      <c r="C25" s="33">
+        <f t="shared" si="11"/>
+        <v>30000</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="27">
         <f t="shared" si="11"/>
         <v>36000</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="31">
         <f t="shared" si="11"/>
         <v>96000</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="27">
         <f t="shared" si="11"/>
         <v>36000</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="31">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="5">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K25" s="27">
         <f t="shared" si="11"/>
         <v>36000</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L25" s="31">
         <f t="shared" si="11"/>
         <v>96000</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M25" s="5">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N25" s="27">
         <f t="shared" si="11"/>
         <v>24000</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O25" s="31">
         <f t="shared" si="11"/>
         <v>72000</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P25" s="2">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q25" s="27">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R25" s="31">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S25" s="5">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T25" s="27">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U25" s="31">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V25" s="2">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W25" s="27">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X25" s="31">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y25" s="5">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="Z25" s="27">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA25" s="31">
         <f t="shared" si="11"/>
         <v>96000</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AB25" s="2">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC25" s="27">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD25" s="31">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
     </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D28" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
+  <mergeCells count="9">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2671,539 +3156,566 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M12"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="C1" s="25" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="J6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="M6" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14">
         <v>4</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D7" s="14">
         <v>12000</v>
       </c>
-      <c r="E3" s="16">
-        <f>C3*D3</f>
+      <c r="E7" s="14">
+        <f>C7*D7</f>
         <v>48000</v>
       </c>
-      <c r="F3" s="17">
-        <f>Tankers!D4</f>
+      <c r="F7" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" ref="H7:H8" si="0">IF(F7=0,0,(G7/I7)*F7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <f>IF(G7=24000,G7/2,G7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <f>F7*G7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <f>C7-H7</f>
         <v>4</v>
       </c>
-      <c r="G3" s="17">
-        <f>Tankers!E4</f>
+      <c r="L7" s="16">
+        <f>D7</f>
         <v>12000</v>
       </c>
-      <c r="H3" s="17">
-        <f t="shared" ref="H3:H4" si="0">IF(F3=0,0,(G3/I3)*F3)</f>
+      <c r="M7" s="16">
+        <f>K7*L7</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" ref="E8:E15" si="1">C8*D8</f>
+        <v>24000</v>
+      </c>
+      <c r="F8" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,8,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <f>IF(G8=24000,G8/2,G8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <f>F8*G8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" ref="K8:K15" si="2">C8-H8</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" ref="L8:L15" si="3">D8</f>
+        <v>12000</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" ref="M8:M15" si="4">K8*L8</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14">
         <v>4</v>
       </c>
-      <c r="I3" s="17">
-        <f>IF(G3=24000,G3/2,G3)</f>
+      <c r="D9" s="14">
         <v>12000</v>
       </c>
-      <c r="J3" s="17">
-        <f>F3*G3</f>
-        <v>48000</v>
-      </c>
-      <c r="K3" s="18">
-        <f>C3-H3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <f>D3</f>
-        <v>12000</v>
-      </c>
-      <c r="M3" s="18">
-        <f>K3*L3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:E11" si="1">C4*D4</f>
-        <v>24000</v>
-      </c>
-      <c r="F4" s="17">
-        <f>Tankers!G4</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="17">
-        <f>Tankers!H4</f>
-        <v>12000</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I4" s="17">
-        <f>IF(G4=24000,G4/2,G4)</f>
-        <v>12000</v>
-      </c>
-      <c r="J4" s="17">
-        <f>F4*G4</f>
-        <v>24000</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" ref="K4:K11" si="2">C4-H4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" ref="L4:L11" si="3">D4</f>
-        <v>12000</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" ref="M4:M11" si="4">K4*L4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16">
-        <v>4</v>
-      </c>
-      <c r="D5" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="E9" s="14">
         <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="F5" s="17">
-        <f>Tankers!J4</f>
+      <c r="F9" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,10,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,11,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <f>IF(F9=0,0,(G9/I9)*F9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" ref="I9:I15" si="5">IF(G9=24000,G9/2,G9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" ref="J9:J15" si="6">F9*G9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G5" s="17">
-        <v>12000</v>
-      </c>
-      <c r="H5" s="17">
-        <f>IF(F5=0,0,(G5/I5)*F5)</f>
-        <v>4</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" ref="I5:I11" si="5">IF(G5=24000,G5/2,G5)</f>
-        <v>12000</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" ref="J5:J11" si="6">F5*G5</f>
-        <v>48000</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="L9" s="16">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M9" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D10" s="14">
         <v>12000</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E10" s="14">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="F6" s="17">
-        <f>Tankers!M4</f>
+      <c r="F10" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,13,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,14,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10:H15" si="7">IF(F10=0,0,(G10/I10)*F10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G6" s="17">
-        <f>Tankers!N4</f>
-        <v>12000</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" ref="H6:H11" si="7">IF(F6=0,0,(G6/I6)*F6)</f>
-        <v>3</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="5"/>
-        <v>12000</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="6"/>
-        <v>36000</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="L10" s="16">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M10" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D11" s="14">
         <v>12000</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E11" s="14">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F7" s="17">
-        <f>Tankers!P4</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
-        <f>Tankers!Q4</f>
-        <v>24000</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="F11" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,17,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I7" s="17">
-        <f t="shared" si="5"/>
-        <v>12000</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="6"/>
-        <v>24000</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="L11" s="16">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M11" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D12" s="14">
         <v>12000</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E12" s="14">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F8" s="17">
-        <f>Tankers!S4</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <f>Tankers!T4</f>
-        <v>24000</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="F12" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I8" s="17">
-        <f t="shared" si="5"/>
-        <v>12000</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="6"/>
-        <v>24000</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="L12" s="16">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M12" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="16">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14">
         <v>2</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D13" s="14">
         <v>12000</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E13" s="14">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F9" s="17">
-        <f>Tankers!V4</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
-        <f>Tankers!W4</f>
-        <v>24000</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="F13" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I9" s="17">
-        <f t="shared" si="5"/>
-        <v>12000</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="6"/>
-        <v>24000</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
+      <c r="L13" s="16">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M13" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="16">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="14">
         <v>4</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D14" s="14">
         <v>12000</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E14" s="14">
         <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="F10" s="17">
-        <f>Tankers!Y4</f>
-        <v>2</v>
-      </c>
-      <c r="G10" s="17">
-        <f>Tankers!Z4</f>
-        <v>24000</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="F14" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,25,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,26,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I10" s="17">
-        <f t="shared" si="5"/>
-        <v>12000</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="6"/>
-        <v>48000</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="L14" s="16">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M14" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="16">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14">
         <v>2</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D15" s="14">
         <v>12000</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E15" s="14">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F11" s="17">
-        <f>Tankers!AB4</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
-        <f>Tankers!AC4</f>
-        <v>24000</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="F15" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,28,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <f>VLOOKUP($C$2,Tankers!$A$4:$AD$23,29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I11" s="17">
-        <f t="shared" si="5"/>
-        <v>12000</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="6"/>
-        <v>24000</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="L15" s="16">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M15" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
-        <f>SUM(C3:C11)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <f>SUM(C7:C15)</f>
         <v>25</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <f>SUM(E3:E11)</f>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <f>SUM(E7:E15)</f>
         <v>300000</v>
       </c>
-      <c r="F12" s="14">
-        <f>SUM(F3:F11)</f>
-        <v>19</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
-        <f>SUM(H3:H11)</f>
+      <c r="F16" s="12">
+        <f>SUM(F7:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f>SUM(H7:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
+        <f>SUM(J7:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f>SUM(K7:K15)</f>
         <v>25</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14">
-        <f>SUM(J3:J11)</f>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13">
+        <f>SUM(M7:M15)</f>
         <v>300000</v>
       </c>
-      <c r="K12" s="15">
-        <f>SUM(K3:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15">
-        <f>SUM(M3:M11)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3228,31 +3740,31 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3276,27 +3788,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43447</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
         <v>200</v>
       </c>
     </row>

--- a/SARE Water Management.xlsx
+++ b/SARE Water Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tanker Tracker" sheetId="5" r:id="rId1"/>
@@ -330,6 +330,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,13 +352,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,15 +952,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.140625" customWidth="1"/>
@@ -1441,6 +1442,9 @@
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1450,9 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1468,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1478,51 +1482,51 @@
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="D2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1620,101 +1624,101 @@
       <c r="A4" s="9">
         <v>43446</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="26">
         <f>SUM(F4,I4,L4,O4,R4,U4,X4,AA4,AD4)</f>
         <v>300000</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="28">
         <f>B4*$C$1</f>
         <v>15000</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="E4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="F4" s="26">
         <f>E4*D4</f>
         <v>48000</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="I4" s="31">
+      <c r="H4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="I4" s="26">
         <f>H4*G4</f>
         <v>24000</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="L4" s="31">
+      <c r="K4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="L4" s="26">
         <f>K4*J4</f>
         <v>48000</v>
       </c>
       <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="22">
         <v>12000</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="26">
         <f>N4*M4</f>
         <v>36000</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="R4" s="31">
+      <c r="Q4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="R4" s="26">
         <f>Q4*P4</f>
         <v>24000</v>
       </c>
       <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="U4" s="31">
+      <c r="T4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="U4" s="26">
         <f>T4*S4</f>
         <v>24000</v>
       </c>
       <c r="V4" s="2">
         <v>1</v>
       </c>
-      <c r="W4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="X4" s="31">
+      <c r="W4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="X4" s="26">
         <f>W4*V4</f>
         <v>24000</v>
       </c>
       <c r="Y4" s="5">
         <v>2</v>
       </c>
-      <c r="Z4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="AA4" s="31">
+      <c r="Z4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="AA4" s="26">
         <f>Z4*Y4</f>
         <v>48000</v>
       </c>
       <c r="AB4" s="2">
         <v>1</v>
       </c>
-      <c r="AC4" s="27">
-        <v>24000</v>
-      </c>
-      <c r="AD4" s="31">
+      <c r="AC4" s="22">
+        <v>24000</v>
+      </c>
+      <c r="AD4" s="26">
         <f>AC4*AB4</f>
         <v>24000</v>
       </c>
@@ -1723,101 +1727,101 @@
       <c r="A5" s="9">
         <v>43447</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="26">
         <f t="shared" ref="B5:B23" si="0">SUM(F5,I5,L5,O5,R5,U5,X5,AA5,AD5)</f>
         <v>300000</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="28">
         <f t="shared" ref="C5:C23" si="1">B5*$C$1</f>
         <v>15000</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="22">
         <v>12000</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="26">
         <f t="shared" ref="F5:F23" si="2">E5*D5</f>
         <v>48000</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="22">
         <v>12000</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="26">
         <f t="shared" ref="I5:I23" si="3">H5*G5</f>
         <v>24000</v>
       </c>
       <c r="J5" s="5">
         <v>4</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="22">
         <v>12000</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="26">
         <f t="shared" ref="L5:L23" si="4">K5*J5</f>
         <v>48000</v>
       </c>
       <c r="M5" s="5">
         <v>3</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="22">
         <v>12000</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="26">
         <f t="shared" ref="O5:O23" si="5">N5*M5</f>
         <v>36000</v>
       </c>
       <c r="P5" s="5">
         <v>1</v>
       </c>
-      <c r="Q5" s="27">
-        <v>24000</v>
-      </c>
-      <c r="R5" s="31">
+      <c r="Q5" s="22">
+        <v>24000</v>
+      </c>
+      <c r="R5" s="26">
         <f t="shared" ref="R5:R23" si="6">Q5*P5</f>
         <v>24000</v>
       </c>
       <c r="S5" s="5">
         <v>1</v>
       </c>
-      <c r="T5" s="27">
-        <v>24000</v>
-      </c>
-      <c r="U5" s="31">
+      <c r="T5" s="22">
+        <v>24000</v>
+      </c>
+      <c r="U5" s="26">
         <f t="shared" ref="U5:U23" si="7">T5*S5</f>
         <v>24000</v>
       </c>
       <c r="V5" s="2">
         <v>1</v>
       </c>
-      <c r="W5" s="27">
-        <v>24000</v>
-      </c>
-      <c r="X5" s="31">
+      <c r="W5" s="22">
+        <v>24000</v>
+      </c>
+      <c r="X5" s="26">
         <f t="shared" ref="X5:X23" si="8">W5*V5</f>
         <v>24000</v>
       </c>
       <c r="Y5" s="5">
         <v>2</v>
       </c>
-      <c r="Z5" s="27">
-        <v>24000</v>
-      </c>
-      <c r="AA5" s="31">
+      <c r="Z5" s="22">
+        <v>24000</v>
+      </c>
+      <c r="AA5" s="26">
         <f t="shared" ref="AA5:AA23" si="9">Z5*Y5</f>
         <v>48000</v>
       </c>
       <c r="AB5" s="2">
         <v>1</v>
       </c>
-      <c r="AC5" s="27">
-        <v>24000</v>
-      </c>
-      <c r="AD5" s="31">
+      <c r="AC5" s="22">
+        <v>24000</v>
+      </c>
+      <c r="AD5" s="26">
         <f t="shared" ref="AD5:AD23" si="10">AC5*AB5</f>
         <v>24000</v>
       </c>
@@ -1826,62 +1830,62 @@
       <c r="A6" s="9">
         <v>43448</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="31">
+      <c r="E6" s="22"/>
+      <c r="F6" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="31">
+      <c r="H6" s="22"/>
+      <c r="I6" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="31">
+      <c r="K6" s="22"/>
+      <c r="L6" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="31">
+      <c r="N6" s="22"/>
+      <c r="O6" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="31">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S6" s="5"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="31">
+      <c r="T6" s="22"/>
+      <c r="U6" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="31">
+      <c r="W6" s="22"/>
+      <c r="X6" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="31">
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="31">
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -1890,62 +1894,62 @@
       <c r="A7" s="9">
         <v>43449</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="31">
+      <c r="E7" s="22"/>
+      <c r="F7" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="31">
+      <c r="H7" s="22"/>
+      <c r="I7" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="31">
+      <c r="K7" s="22"/>
+      <c r="L7" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="31">
+      <c r="N7" s="22"/>
+      <c r="O7" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="31">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7" s="5"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="31">
+      <c r="T7" s="22"/>
+      <c r="U7" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W7" s="27"/>
-      <c r="X7" s="31">
+      <c r="W7" s="22"/>
+      <c r="X7" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="31">
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="31">
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -1954,62 +1958,62 @@
       <c r="A8" s="9">
         <v>43450</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="31">
+      <c r="E8" s="22"/>
+      <c r="F8" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="31">
+      <c r="H8" s="22"/>
+      <c r="I8" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="31">
+      <c r="K8" s="22"/>
+      <c r="L8" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="31">
+      <c r="N8" s="22"/>
+      <c r="O8" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="31">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="5"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="31">
+      <c r="T8" s="22"/>
+      <c r="U8" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="31">
+      <c r="W8" s="22"/>
+      <c r="X8" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="31">
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="31">
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2018,62 +2022,62 @@
       <c r="A9" s="9">
         <v>43451</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="31">
+      <c r="E9" s="22"/>
+      <c r="F9" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="31">
+      <c r="H9" s="22"/>
+      <c r="I9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="31">
+      <c r="K9" s="22"/>
+      <c r="L9" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="31">
+      <c r="N9" s="22"/>
+      <c r="O9" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="31">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="5"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="31">
+      <c r="T9" s="22"/>
+      <c r="U9" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="31">
+      <c r="W9" s="22"/>
+      <c r="X9" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="31">
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="31">
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2082,62 +2086,62 @@
       <c r="A10" s="9">
         <v>43452</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="31">
+      <c r="E10" s="22"/>
+      <c r="F10" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="31">
+      <c r="H10" s="22"/>
+      <c r="I10" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="31">
+      <c r="K10" s="22"/>
+      <c r="L10" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="31">
+      <c r="N10" s="22"/>
+      <c r="O10" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="31">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="31">
+      <c r="T10" s="22"/>
+      <c r="U10" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="31">
+      <c r="W10" s="22"/>
+      <c r="X10" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="31">
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="31">
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2146,62 +2150,62 @@
       <c r="A11" s="9">
         <v>43453</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="31">
+      <c r="E11" s="22"/>
+      <c r="F11" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="31">
+      <c r="H11" s="22"/>
+      <c r="I11" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="31">
+      <c r="K11" s="22"/>
+      <c r="L11" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="31">
+      <c r="N11" s="22"/>
+      <c r="O11" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="31">
+      <c r="Q11" s="22"/>
+      <c r="R11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="31">
+      <c r="T11" s="22"/>
+      <c r="U11" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="31">
+      <c r="W11" s="22"/>
+      <c r="X11" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="31">
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="31">
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2210,62 +2214,62 @@
       <c r="A12" s="9">
         <v>43454</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="31">
+      <c r="E12" s="22"/>
+      <c r="F12" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="31">
+      <c r="H12" s="22"/>
+      <c r="I12" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="31">
+      <c r="K12" s="22"/>
+      <c r="L12" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="31">
+      <c r="N12" s="22"/>
+      <c r="O12" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="31">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="31">
+      <c r="T12" s="22"/>
+      <c r="U12" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="31">
+      <c r="W12" s="22"/>
+      <c r="X12" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="31">
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="31">
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2274,62 +2278,62 @@
       <c r="A13" s="9">
         <v>43455</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="31">
+      <c r="E13" s="22"/>
+      <c r="F13" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="31">
+      <c r="H13" s="22"/>
+      <c r="I13" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="31">
+      <c r="K13" s="22"/>
+      <c r="L13" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="31">
+      <c r="N13" s="22"/>
+      <c r="O13" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="31">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="31">
+      <c r="T13" s="22"/>
+      <c r="U13" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="31">
+      <c r="W13" s="22"/>
+      <c r="X13" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="31">
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="31">
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2338,62 +2342,62 @@
       <c r="A14" s="9">
         <v>43456</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="31">
+      <c r="E14" s="22"/>
+      <c r="F14" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="31">
+      <c r="H14" s="22"/>
+      <c r="I14" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="31">
+      <c r="K14" s="22"/>
+      <c r="L14" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="31">
+      <c r="N14" s="22"/>
+      <c r="O14" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="31">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="31">
+      <c r="T14" s="22"/>
+      <c r="U14" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="27"/>
-      <c r="X14" s="31">
+      <c r="W14" s="22"/>
+      <c r="X14" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="31">
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="31">
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2402,62 +2406,62 @@
       <c r="A15" s="9">
         <v>43457</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="31">
+      <c r="E15" s="22"/>
+      <c r="F15" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="31">
+      <c r="H15" s="22"/>
+      <c r="I15" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="31">
+      <c r="K15" s="22"/>
+      <c r="L15" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="31">
+      <c r="N15" s="22"/>
+      <c r="O15" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="31">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="31">
+      <c r="T15" s="22"/>
+      <c r="U15" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="31">
+      <c r="W15" s="22"/>
+      <c r="X15" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="31">
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="31">
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2466,62 +2470,62 @@
       <c r="A16" s="9">
         <v>43458</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="31">
+      <c r="E16" s="22"/>
+      <c r="F16" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="31">
+      <c r="H16" s="22"/>
+      <c r="I16" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="31">
+      <c r="K16" s="22"/>
+      <c r="L16" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="31">
+      <c r="N16" s="22"/>
+      <c r="O16" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="31">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S16" s="5"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="31">
+      <c r="T16" s="22"/>
+      <c r="U16" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="31">
+      <c r="W16" s="22"/>
+      <c r="X16" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="31">
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="31">
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2530,62 +2534,62 @@
       <c r="A17" s="9">
         <v>43459</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="31">
+      <c r="E17" s="22"/>
+      <c r="F17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="31">
+      <c r="H17" s="22"/>
+      <c r="I17" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="31">
+      <c r="K17" s="22"/>
+      <c r="L17" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="31">
+      <c r="N17" s="22"/>
+      <c r="O17" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="31">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S17" s="5"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="31">
+      <c r="T17" s="22"/>
+      <c r="U17" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="31">
+      <c r="W17" s="22"/>
+      <c r="X17" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="31">
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="31">
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2594,62 +2598,62 @@
       <c r="A18" s="9">
         <v>43460</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="31">
+      <c r="E18" s="22"/>
+      <c r="F18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="31">
+      <c r="H18" s="22"/>
+      <c r="I18" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="31">
+      <c r="K18" s="22"/>
+      <c r="L18" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="31">
+      <c r="N18" s="22"/>
+      <c r="O18" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="31">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S18" s="5"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="31">
+      <c r="T18" s="22"/>
+      <c r="U18" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="27"/>
-      <c r="X18" s="31">
+      <c r="W18" s="22"/>
+      <c r="X18" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="31">
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="31">
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2658,62 +2662,62 @@
       <c r="A19" s="9">
         <v>43461</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="31">
+      <c r="E19" s="22"/>
+      <c r="F19" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="31">
+      <c r="H19" s="22"/>
+      <c r="I19" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="31">
+      <c r="K19" s="22"/>
+      <c r="L19" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="31">
+      <c r="N19" s="22"/>
+      <c r="O19" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="31">
+      <c r="Q19" s="22"/>
+      <c r="R19" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S19" s="5"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="31">
+      <c r="T19" s="22"/>
+      <c r="U19" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W19" s="27"/>
-      <c r="X19" s="31">
+      <c r="W19" s="22"/>
+      <c r="X19" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="31">
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="31">
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2722,62 +2726,62 @@
       <c r="A20" s="9">
         <v>43462</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="31">
+      <c r="E20" s="22"/>
+      <c r="F20" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="31">
+      <c r="H20" s="22"/>
+      <c r="I20" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="31">
+      <c r="K20" s="22"/>
+      <c r="L20" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="31">
+      <c r="N20" s="22"/>
+      <c r="O20" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="31">
+      <c r="Q20" s="22"/>
+      <c r="R20" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S20" s="5"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="31">
+      <c r="T20" s="22"/>
+      <c r="U20" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W20" s="27"/>
-      <c r="X20" s="31">
+      <c r="W20" s="22"/>
+      <c r="X20" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="31">
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="31">
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2786,62 +2790,62 @@
       <c r="A21" s="9">
         <v>43463</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="31">
+      <c r="E21" s="22"/>
+      <c r="F21" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="31">
+      <c r="H21" s="22"/>
+      <c r="I21" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="31">
+      <c r="K21" s="22"/>
+      <c r="L21" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="31">
+      <c r="N21" s="22"/>
+      <c r="O21" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="31">
+      <c r="Q21" s="22"/>
+      <c r="R21" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S21" s="5"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="31">
+      <c r="T21" s="22"/>
+      <c r="U21" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="27"/>
-      <c r="X21" s="31">
+      <c r="W21" s="22"/>
+      <c r="X21" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="31">
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="31">
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2850,62 +2854,62 @@
       <c r="A22" s="9">
         <v>43464</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="31">
+      <c r="E22" s="22"/>
+      <c r="F22" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="31">
+      <c r="H22" s="22"/>
+      <c r="I22" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="31">
+      <c r="K22" s="22"/>
+      <c r="L22" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="31">
+      <c r="N22" s="22"/>
+      <c r="O22" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="31">
+      <c r="Q22" s="22"/>
+      <c r="R22" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S22" s="5"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="31">
+      <c r="T22" s="22"/>
+      <c r="U22" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="27"/>
-      <c r="X22" s="31">
+      <c r="W22" s="22"/>
+      <c r="X22" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="31">
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="31">
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2914,104 +2918,104 @@
       <c r="A23" s="9">
         <v>43465</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="31">
+      <c r="E23" s="22"/>
+      <c r="F23" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="31">
+      <c r="H23" s="22"/>
+      <c r="I23" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="31">
+      <c r="K23" s="22"/>
+      <c r="L23" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="31">
+      <c r="N23" s="22"/>
+      <c r="O23" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="31">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S23" s="5"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="31">
+      <c r="T23" s="22"/>
+      <c r="U23" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="31">
+      <c r="W23" s="22"/>
+      <c r="X23" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="31">
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="31">
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="31"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="31"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="31"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="31"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="26"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="26"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="31"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="31"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="26"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="26"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="31"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="31"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="26"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="26"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="26">
         <f t="shared" ref="B25:AD25" si="11">SUM(B4:B24)</f>
         <v>600000</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="28">
         <f t="shared" si="11"/>
         <v>30000</v>
       </c>
@@ -3019,11 +3023,11 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="22">
         <f t="shared" si="11"/>
         <v>36000</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="26">
         <f t="shared" si="11"/>
         <v>96000</v>
       </c>
@@ -3031,11 +3035,11 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="22">
         <f t="shared" si="11"/>
         <v>36000</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="26">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
@@ -3043,11 +3047,11 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="22">
         <f t="shared" si="11"/>
         <v>36000</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="26">
         <f t="shared" si="11"/>
         <v>96000</v>
       </c>
@@ -3055,11 +3059,11 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="22">
         <f t="shared" si="11"/>
         <v>24000</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="26">
         <f t="shared" si="11"/>
         <v>72000</v>
       </c>
@@ -3067,11 +3071,11 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="22">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="R25" s="31">
+      <c r="R25" s="26">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
@@ -3079,11 +3083,11 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="T25" s="27">
+      <c r="T25" s="22">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="U25" s="31">
+      <c r="U25" s="26">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
@@ -3091,11 +3095,11 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="W25" s="27">
+      <c r="W25" s="22">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="X25" s="31">
+      <c r="X25" s="26">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
@@ -3103,11 +3107,11 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="Z25" s="27">
+      <c r="Z25" s="22">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="AA25" s="31">
+      <c r="AA25" s="26">
         <f t="shared" si="11"/>
         <v>96000</v>
       </c>
@@ -3115,27 +3119,27 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AC25" s="27">
+      <c r="AC25" s="22">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
-      <c r="AD25" s="31">
+      <c r="AD25" s="26">
         <f t="shared" si="11"/>
         <v>48000</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D28" s="29"/>
+      <c r="D28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3158,7 +3162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3179,40 +3183,40 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
